--- a/04_Result Evaluation/RM_Results.xlsx
+++ b/04_Result Evaluation/RM_Results.xlsx
@@ -391,64 +391,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>720</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Measurements_B95001.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>713</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C3" s="2" t="n">
         <v>920</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Measurements_B95008.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>911</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1613</v>
-      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Measurements_B95005.xlsx</t>
+          <t>Measurements_B95002.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>713</v>
+        <v>995</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>920</v>
+        <v>1517</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Measurements_B95002.xlsx</t>
+          <t>Measurements_B95003.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>888</v>
@@ -463,38 +455,34 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>720</v>
+        <v>911</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>590</v>
+        <v>1613</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Measurements_B95001.xlsx</t>
+          <t>Measurements_B95005.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>995</v>
+        <v>713</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1517</v>
+        <v>920</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Measurements_B95003.xlsx</t>
+          <t>Measurements_B95008.xlsx</t>
         </is>
       </c>
     </row>
